--- a/9_2_VLT_Variation/9_2_Kosten_pess_opt.xlsx
+++ b/9_2_VLT_Variation/9_2_Kosten_pess_opt.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -182,19 +182,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -271,7 +269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E80E996-55E7-496C-9664-30D30EF357BB}" type="CELLRANGE">
+                    <a:fld id="{584C52C9-9565-499B-B245-0BE1447F30E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -304,7 +302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61250B04-8478-4F37-9911-282F566FBF09}" type="CELLRANGE">
+                    <a:fld id="{D48C4233-7A46-41BD-BB4A-0B9613DBAEBB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -338,7 +336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87A9B0CC-B227-479E-B800-5B4D262DE7A0}" type="CELLRANGE">
+                    <a:fld id="{00CEE169-B872-420E-8F01-B3EBA8AF9827}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -822,7 +820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BE5486E-C01F-4665-AFD4-9ACF06D5E189}" type="CELLRANGE">
+                    <a:fld id="{E1C1D7D8-B9A9-4F8C-8C34-B7404B2155C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -855,7 +853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22597D38-3923-47DE-9A76-9405D3C40F40}" type="CELLRANGE">
+                    <a:fld id="{25E941C5-BB10-4DD1-B641-D794B745CD26}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -889,7 +887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9328D935-CE3D-4316-854C-C26DDD9CA9AA}" type="CELLRANGE">
+                    <a:fld id="{CF0E0B05-D9D2-4AC3-9157-C3FD89AF10A0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1054,7 +1052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{665F894C-AD45-491A-9414-DC5B054116E7}" type="CELLRANGE">
+                    <a:fld id="{9CA68D2B-5B33-4658-90B0-2D33E6C40E07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1086,7 +1084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D13AABB5-F4CD-4285-A3B5-B57B14460499}" type="CELLRANGE">
+                    <a:fld id="{2F2432AB-D4C3-49BE-86B6-ABC1CE9FCE7D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1119,7 +1117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A11DF511-7AAB-45E0-8FE2-8CA79FEB2E4C}" type="CELLRANGE">
+                    <a:fld id="{E4DA84E1-0C57-46DB-8853-0E03242DECA2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2901,10 +2899,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2950,10 +2948,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3224,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5395E545-C7E4-4937-89EC-C03939104281}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,11 +3259,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>AVERAGE(B11,B17)</f>
+        <f t="shared" ref="K3:L5" si="0">AVERAGE(B11,B17)</f>
         <v>2.5674112819769999</v>
       </c>
       <c r="L3" s="4">
-        <f>AVERAGE(C11,C17)</f>
+        <f t="shared" si="0"/>
         <v>180.5</v>
       </c>
       <c r="M3" s="3">
@@ -3278,22 +3276,22 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="F4" s="4"/>
       <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="4">
-        <f>AVERAGE(B12,B18)</f>
+        <f t="shared" si="0"/>
         <v>2.1468507011823172</v>
       </c>
       <c r="L4" s="4">
-        <f>AVERAGE(C12,C18)</f>
+        <f t="shared" si="0"/>
         <v>344.5</v>
       </c>
     </row>
@@ -3318,11 +3316,11 @@
         <v>2</v>
       </c>
       <c r="K5" s="4">
-        <f>AVERAGE(B13,B19)</f>
+        <f t="shared" si="0"/>
         <v>2.6495752698010002</v>
       </c>
       <c r="L5" s="4">
-        <f>AVERAGE(C13,C19)</f>
+        <f t="shared" si="0"/>
         <v>155.5</v>
       </c>
       <c r="M5" s="3">
@@ -3389,14 +3387,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3404,11 +3402,11 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="6" cm="1">
+      <c r="B11" s="5" cm="1">
         <f t="array" ref="B11:C13">[2]Zusammenfassung!$K$3:$L$5</f>
         <v>2.5591485862300001</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>173</v>
       </c>
       <c r="D11" s="3">
@@ -3428,22 +3426,22 @@
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2.1426253247603171</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>341</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="0">K4-B12</f>
+        <f t="shared" ref="D12:D13" si="1">K4-B12</f>
         <v>4.2253764220001599E-3</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ref="E12:E13" si="1">C12-L4</f>
+        <f t="shared" ref="E12:E13" si="2">C12-L4</f>
         <v>-3.5</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ref="F12:F13" si="2">D12*1000000</f>
+        <f t="shared" ref="F12:F13" si="3">D12*1000000</f>
         <v>4225.3764220001603</v>
       </c>
     </row>
@@ -3451,32 +3449,32 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2.6394564516820003</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>148</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.011881811899995E-2</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10118.81811899995</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3488,7 +3486,7 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3496,11 +3494,11 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6" cm="1">
+      <c r="B17" s="5" cm="1">
         <f t="array" ref="B17:C19">[3]Zusammenfassung!$K$3:$L$5</f>
         <v>2.5756739777240001</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>188</v>
       </c>
       <c r="D17" s="3">
@@ -3516,10 +3514,10 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2.151076077604317</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>348</v>
       </c>
       <c r="D18" s="3">
@@ -3527,7 +3525,7 @@
         <v>-4.2253764219997159E-3</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ref="E18:E19" si="3">C18-L4</f>
+        <f t="shared" ref="E18:E19" si="4">C18-L4</f>
         <v>3.5</v>
       </c>
     </row>
@@ -3535,10 +3533,10 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>2.6596940879200002</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>163</v>
       </c>
       <c r="D19" s="3">
@@ -3546,7 +3544,7 @@
         <v>-1.011881811899995E-2</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
